--- a/outcome/appendix/data/forecast/HAV.xlsx
+++ b/outcome/appendix/data/forecast/HAV.xlsx
@@ -462,16 +462,16 @@
         <v>1206.32381161668</v>
       </c>
       <c r="C3" t="n">
-        <v>-3248.26789369349</v>
+        <v>-5258.36062921712</v>
       </c>
       <c r="D3" t="n">
-        <v>-5606.38629929375</v>
+        <v>-8680.5578528494</v>
       </c>
       <c r="E3" t="n">
-        <v>5660.91551692685</v>
+        <v>7671.00825245049</v>
       </c>
       <c r="F3" t="n">
-        <v>8019.03392252711</v>
+        <v>11093.2054760828</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -494,16 +494,16 @@
         <v>1531.17397836404</v>
       </c>
       <c r="C4" t="n">
-        <v>-214481.068385627</v>
+        <v>-422456.165284905</v>
       </c>
       <c r="D4" t="n">
-        <v>-328831.042132108</v>
+        <v>-646901.504970325</v>
       </c>
       <c r="E4" t="n">
-        <v>217543.416342355</v>
+        <v>425518.513241633</v>
       </c>
       <c r="F4" t="n">
-        <v>331893.390088836</v>
+        <v>649963.852927053</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -526,16 +526,16 @@
         <v>1410.96982079323</v>
       </c>
       <c r="C5" t="n">
-        <v>-7264432.2888955</v>
+        <v>-20544366.900557</v>
       </c>
       <c r="D5" t="n">
-        <v>-11110737.3722909</v>
+        <v>-31420644.7187367</v>
       </c>
       <c r="E5" t="n">
-        <v>7267254.22853709</v>
+        <v>20547188.8401986</v>
       </c>
       <c r="F5" t="n">
-        <v>11113559.3119325</v>
+        <v>31423466.6583783</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -558,16 +558,16 @@
         <v>1420.35143810293</v>
       </c>
       <c r="C6" t="n">
-        <v>-271928583.09725</v>
+        <v>-1007244037.54975</v>
       </c>
       <c r="D6" t="n">
-        <v>-415879631.495893</v>
+        <v>-1540447574.56587</v>
       </c>
       <c r="E6" t="n">
-        <v>271931423.800127</v>
+        <v>1007246878.25263</v>
       </c>
       <c r="F6" t="n">
-        <v>415882472.198769</v>
+        <v>1540450415.26875</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -590,16 +590,16 @@
         <v>1419.43451361272</v>
       </c>
       <c r="C7" t="n">
-        <v>-10931956558.6618</v>
+        <v>-48604793986.7492</v>
       </c>
       <c r="D7" t="n">
-        <v>-16718985544.2066</v>
+        <v>-74334618453.2939</v>
       </c>
       <c r="E7" t="n">
-        <v>10931959397.5308</v>
+        <v>48604796825.6182</v>
       </c>
       <c r="F7" t="n">
-        <v>16718988383.0756</v>
+        <v>74334621292.1629</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -622,16 +622,16 @@
         <v>1519.78312714683</v>
       </c>
       <c r="C8" t="n">
-        <v>-363121654231.235</v>
+        <v>-2658261314428.05</v>
       </c>
       <c r="D8" t="n">
-        <v>-555346647349.632</v>
+        <v>-4065459852637.36</v>
       </c>
       <c r="E8" t="n">
-        <v>363121657270.801</v>
+        <v>2658261317467.62</v>
       </c>
       <c r="F8" t="n">
-        <v>555346650389.198</v>
+        <v>4065459855676.92</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -654,16 +654,16 @@
         <v>1581.25789100461</v>
       </c>
       <c r="C9" t="n">
-        <v>-11740306417302.6</v>
+        <v>-135931442075887</v>
       </c>
       <c r="D9" t="n">
-        <v>-17955249219076.1</v>
+        <v>-207889200871279</v>
       </c>
       <c r="E9" t="n">
-        <v>11740306420465.2</v>
+        <v>135931442079050</v>
       </c>
       <c r="F9" t="n">
-        <v>17955249222238.6</v>
+        <v>207889200874442</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -686,16 +686,16 @@
         <v>1443.93537716351</v>
       </c>
       <c r="C10" t="n">
-        <v>-252792483819284</v>
+        <v>-5741992324406332</v>
       </c>
       <c r="D10" t="n">
-        <v>-386612741281816</v>
+        <v>-8781619450919513</v>
       </c>
       <c r="E10" t="n">
-        <v>252792483822172</v>
+        <v>5741992324409220</v>
       </c>
       <c r="F10" t="n">
-        <v>386612741284704</v>
+        <v>8781619450922401</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -718,16 +718,16 @@
         <v>1379.60468848891</v>
       </c>
       <c r="C11" t="n">
-        <v>-6896205099776423</v>
+        <v>-245529166581671232</v>
       </c>
       <c r="D11" t="n">
-        <v>-10546835561642312</v>
+        <v>-375504456154842176</v>
       </c>
       <c r="E11" t="n">
-        <v>6896205099779183</v>
+        <v>245529166581673984</v>
       </c>
       <c r="F11" t="n">
-        <v>10546835561645072</v>
+        <v>375504456154844992</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -750,16 +750,16 @@
         <v>1342.88674124662</v>
       </c>
       <c r="C12" t="n">
-        <v>-168121950551103584</v>
+        <v>-9221470168223053824</v>
       </c>
       <c r="D12" t="n">
-        <v>-257120335185857184</v>
+        <v>-14103021602995099648</v>
       </c>
       <c r="E12" t="n">
-        <v>168121950551106272</v>
+        <v>9221470168223055872</v>
       </c>
       <c r="F12" t="n">
-        <v>257120335185859872</v>
+        <v>14103021602995103744</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -782,16 +782,16 @@
         <v>1261.01354591642</v>
       </c>
       <c r="C13" t="n">
-        <v>-3276554262082674688</v>
+        <v>-386848666876823928832</v>
       </c>
       <c r="D13" t="n">
-        <v>-5011057315000999936</v>
+        <v>-591633980973448691712</v>
       </c>
       <c r="E13" t="n">
-        <v>3276554262082676736</v>
+        <v>386848666876823928832</v>
       </c>
       <c r="F13" t="n">
-        <v>5011057315001001984</v>
+        <v>591633980973448691712</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -814,16 +814,16 @@
         <v>1239.5023369375</v>
       </c>
       <c r="C14" t="n">
-        <v>-106633611873926610944</v>
+        <v>-14392333837031725596672</v>
       </c>
       <c r="D14" t="n">
-        <v>-163082036207808937984</v>
+        <v>-22011175150858671226880</v>
       </c>
       <c r="E14" t="n">
-        <v>106633611873926610944</v>
+        <v>14392333837031725596672</v>
       </c>
       <c r="F14" t="n">
-        <v>163082036207808937984</v>
+        <v>22011175150858671226880</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -846,16 +846,16 @@
         <v>1185.24675435992</v>
       </c>
       <c r="C15" t="n">
-        <v>-2877100823718678495232</v>
+        <v>-500732624327606175531008</v>
       </c>
       <c r="D15" t="n">
-        <v>-4400145999574202843136</v>
+        <v>-765804463864296582938624</v>
       </c>
       <c r="E15" t="n">
-        <v>2877100823718678495232</v>
+        <v>500732624327606175531008</v>
       </c>
       <c r="F15" t="n">
-        <v>4400145999574202843136</v>
+        <v>765804463864296582938624</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -878,16 +878,16 @@
         <v>1505.05893222603</v>
       </c>
       <c r="C16" t="n">
-        <v>-65894459157104102998016</v>
+        <v>-25342850910143431936311296</v>
       </c>
       <c r="D16" t="n">
-        <v>-100776878746807530684416</v>
+        <v>-38758545800957539941089280</v>
       </c>
       <c r="E16" t="n">
-        <v>65894459157104102998016</v>
+        <v>25342850910143431936311296</v>
       </c>
       <c r="F16" t="n">
-        <v>100776878746807530684416</v>
+        <v>38758545800957539941089280</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -910,16 +910,16 @@
         <v>1387.47961530892</v>
       </c>
       <c r="C17" t="n">
-        <v>-1547956221630314205675520</v>
+        <v>-846568101863819692283527168</v>
       </c>
       <c r="D17" t="n">
-        <v>-2367394746812885580644352</v>
+        <v>-1294714184527112595843317760</v>
       </c>
       <c r="E17" t="n">
-        <v>1547956221630314205675520</v>
+        <v>846568101863819692283527168</v>
       </c>
       <c r="F17" t="n">
-        <v>2367394746812885580644352</v>
+        <v>1294714184527112595843317760</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -942,16 +942,16 @@
         <v>1397.27064241342</v>
       </c>
       <c r="C18" t="n">
-        <v>-44023499227986837182087168</v>
+        <v>-28937926069097965854444748800</v>
       </c>
       <c r="D18" t="n">
-        <v>-67328131992577383033995264</v>
+        <v>-44256738790383743941002395648</v>
       </c>
       <c r="E18" t="n">
-        <v>44023499227986837182087168</v>
+        <v>28937926069097965854444748800</v>
       </c>
       <c r="F18" t="n">
-        <v>67328131992577383033995264</v>
+        <v>44256738790383743941002395648</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -974,16 +974,16 @@
         <v>1396.92119032969</v>
       </c>
       <c r="C19" t="n">
-        <v>-768820817778739378319785984</v>
+        <v>-887744762150438764648454946816</v>
       </c>
       <c r="D19" t="n">
-        <v>-1175809974349813604249763840</v>
+        <v>-1357688452075307694508310790144</v>
       </c>
       <c r="E19" t="n">
-        <v>768820817778739378319785984</v>
+        <v>887744762150438764648454946816</v>
       </c>
       <c r="F19" t="n">
-        <v>1175809974349813604249763840</v>
+        <v>1357688452075307694508310790144</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -1006,16 +1006,16 @@
         <v>1496.25653967067</v>
       </c>
       <c r="C20" t="n">
-        <v>-15992303783171353316847255552</v>
+        <v>-27003951291468049425767965130752</v>
       </c>
       <c r="D20" t="n">
-        <v>-24458118024708269226567139328</v>
+        <v>-41298979607628811691324335980544</v>
       </c>
       <c r="E20" t="n">
-        <v>15992303783171353316847255552</v>
+        <v>27003951291468049425767965130752</v>
       </c>
       <c r="F20" t="n">
-        <v>24458118024708269226567139328</v>
+        <v>41298979607628811691324335980544</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1038,16 +1038,16 @@
         <v>1557.36783061766</v>
       </c>
       <c r="C21" t="n">
-        <v>-430906972200795185580234244096</v>
+        <v>-843940250360373388149492568555520</v>
       </c>
       <c r="D21" t="n">
-        <v>-659015344296240132985815302144</v>
+        <v>-1290695232467789277021120235569152</v>
       </c>
       <c r="E21" t="n">
-        <v>430906972200795185580234244096</v>
+        <v>843940250360373388149492568555520</v>
       </c>
       <c r="F21" t="n">
-        <v>659015344296240132985815302144</v>
+        <v>1290695232467789277021120235569152</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1070,16 +1070,16 @@
         <v>1422.64496694594</v>
       </c>
       <c r="C22" t="n">
-        <v>-5272949066791338362277298438144</v>
+        <v>-25310613288223716103309402784661504</v>
       </c>
       <c r="D22" t="n">
-        <v>-8064279691183004647588248944640</v>
+        <v>-38709242612846643581887896182849536</v>
       </c>
       <c r="E22" t="n">
-        <v>5272949066791338362277298438144</v>
+        <v>25310613288223716103309402784661504</v>
       </c>
       <c r="F22" t="n">
-        <v>8064279691183004647588248944640</v>
+        <v>38709242612846643581887896182849536</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1102,16 +1102,16 @@
         <v>1359.7529967553</v>
       </c>
       <c r="C23" t="n">
-        <v>-50268930342906543267681342062592</v>
+        <v>-851683899922145673597708481775796224</v>
       </c>
       <c r="D23" t="n">
-        <v>-76879694631390643971561678176256</v>
+        <v>-1302538122491120895916096838579519488</v>
       </c>
       <c r="E23" t="n">
-        <v>50268930342906543267681342062592</v>
+        <v>851683899922145673597708481775796224</v>
       </c>
       <c r="F23" t="n">
-        <v>76879694631390643971561678176256</v>
+        <v>1302538122491120895916096838579519488</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1134,16 +1134,16 @@
         <v>1324.02967891418</v>
       </c>
       <c r="C24" t="n">
-        <v>-1069093890715323808572328810381312</v>
+        <v>-21744437849693620101855196185416957952</v>
       </c>
       <c r="D24" t="n">
-        <v>-1635038010353794729072456735129600</v>
+        <v>-33255247931719575927148181273016532992</v>
       </c>
       <c r="E24" t="n">
-        <v>1069093890715323808572328810381312</v>
+        <v>21744437849693620101855196185416957952</v>
       </c>
       <c r="F24" t="n">
-        <v>1635038010353794729072456735129600</v>
+        <v>33255247931719575927148181273016532992</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1166,16 +1166,16 @@
         <v>1243.73402371234</v>
       </c>
       <c r="C25" t="n">
-        <v>-8450397919894780556447481543524352</v>
+        <v>-529965298933643464032491258093674430464</v>
       </c>
       <c r="D25" t="n">
-        <v>-12923768362756172061788343042572288</v>
+        <v>-810511981641986542761370107750664634368</v>
       </c>
       <c r="E25" t="n">
-        <v>8450397919894780556447481543524352</v>
+        <v>529965298933643464032491258093674430464</v>
       </c>
       <c r="F25" t="n">
-        <v>12923768362756172061788343042572288</v>
+        <v>810511981641986542761370107750664634368</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1198,16 +1198,16 @@
         <v>1222.92853829365</v>
       </c>
       <c r="C26" t="n">
-        <v>-162203351440095153826130361373949952</v>
+        <v>-17784006978014484666199770826190712995840</v>
       </c>
       <c r="D26" t="n">
-        <v>-248068618962812616054645929795387392</v>
+        <v>-27198291598126349746956610648013296107520</v>
       </c>
       <c r="E26" t="n">
-        <v>162203351440095153826130361373949952</v>
+        <v>17784006978014484666199770826190712995840</v>
       </c>
       <c r="F26" t="n">
-        <v>248068618962812616054645929795387392</v>
+        <v>27198291598126349746956610648013296107520</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1230,16 +1230,16 @@
         <v>1169.78236179598</v>
       </c>
       <c r="C27" t="n">
-        <v>-2064527767537279619772928263383416832</v>
+        <v>-570318308736729336908989792620807274364928</v>
       </c>
       <c r="D27" t="n">
-        <v>-3157422750864038496336364409955811328</v>
+        <v>-872226584478299527679132403992351834374144</v>
       </c>
       <c r="E27" t="n">
-        <v>2064527767537279619772928263383416832</v>
+        <v>570318308736729336908989792620807274364928</v>
       </c>
       <c r="F27" t="n">
-        <v>3157422750864038496336364409955811328</v>
+        <v>872226584478299527679132403992351834374144</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1262,16 +1262,16 @@
         <v>1485.89813894824</v>
       </c>
       <c r="C28" t="n">
-        <v>-47980796837548963836754985804195954688</v>
+        <v>-20156393681368789669601038059746580253114368</v>
       </c>
       <c r="D28" t="n">
-        <v>-73380296415280268596990262722412150784</v>
+        <v>-30826543961112774559160650974820617622126592</v>
       </c>
       <c r="E28" t="n">
-        <v>47980796837548963836754985804195954688</v>
+        <v>20156393681368789669601038059746580253114368</v>
       </c>
       <c r="F28" t="n">
-        <v>73380296415280268596990262722412150784</v>
+        <v>30826543961112774559160650974820617622126592</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1294,16 +1294,16 @@
         <v>1370.24469435142</v>
       </c>
       <c r="C29" t="n">
-        <v>-1033984297697391289909567216253963075584</v>
+        <v>-407087623021311205649481202268146069416181760</v>
       </c>
       <c r="D29" t="n">
-        <v>-1581342521481472805808231929099944198144</v>
+        <v>-622586793325578932424867829259273243612676096</v>
       </c>
       <c r="E29" t="n">
-        <v>1033984297697391289909567216253963075584</v>
+        <v>407087623021311205649481202268146069416181760</v>
       </c>
       <c r="F29" t="n">
-        <v>1581342521481472805808231929099944198144</v>
+        <v>622586793325578932424867829259273243612676096</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1326,16 +1326,16 @@
         <v>1380.33611647628</v>
       </c>
       <c r="C30" t="n">
-        <v>-11405672814854801363328876142149773557760</v>
+        <v>-12370014549551285915777915267164751748204068864</v>
       </c>
       <c r="D30" t="n">
-        <v>-17443471287137210648728708086065904222208</v>
+        <v>-18918304699705200022542585404887834470819823616</v>
       </c>
       <c r="E30" t="n">
-        <v>11405672814854801363328876142149773557760</v>
+        <v>12370014549551285915777915267164751748204068864</v>
       </c>
       <c r="F30" t="n">
-        <v>17443471287137210648728708086065904222208</v>
+        <v>18918304699705200022542585404887834470819823616</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1358,16 +1358,16 @@
         <v>1380.40303081201</v>
       </c>
       <c r="C31" t="n">
-        <v>-163029793963441024303932053193361499095040</v>
+        <v>-325105901713741919701595452426457683449551519744</v>
       </c>
       <c r="D31" t="n">
-        <v>-249332553731104178177155922452544948797440</v>
+        <v>-497206570263580211575414126846147999380585578496</v>
       </c>
       <c r="E31" t="n">
-        <v>163029793963441024303932053193361499095040</v>
+        <v>325105901713741919701595452426457683449551519744</v>
       </c>
       <c r="F31" t="n">
-        <v>249332553731104178177155922452544948797440</v>
+        <v>497206570263580211575414126846147999380585578496</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1390,16 +1390,16 @@
         <v>1478.99495109704</v>
       </c>
       <c r="C32" t="n">
-        <v>-4059491623316257342837055940767640067244032</v>
+        <v>-7989215662474977728314152039876919172333932904448</v>
       </c>
       <c r="D32" t="n">
-        <v>-6208456679510022933166505893297479946862592</v>
+        <v>-12218450965350024028397393386795966309704876949504</v>
       </c>
       <c r="E32" t="n">
-        <v>4059491623316257342837055940767640067244032</v>
+        <v>7989215662474977728314152039876919172333932904448</v>
       </c>
       <c r="F32" t="n">
-        <v>6208456679510022933166505893297479946862592</v>
+        <v>12218450965350024028397393386795966309704876949504</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1422,16 +1422,16 @@
         <v>1539.8395692386</v>
       </c>
       <c r="C33" t="n">
-        <v>-69615571590312221646420234208645753983729664</v>
+        <v>-227978078812878727520751364752932004613615716925440</v>
       </c>
       <c r="D33" t="n">
-        <v>-106467829113219676692458125254824998406717440</v>
+        <v>-348662383747309006168648083308875817655011305848832</v>
       </c>
       <c r="E33" t="n">
-        <v>69615571590312221646420234208645753983729664</v>
+        <v>227978078812878727520751364752932004613615716925440</v>
       </c>
       <c r="F33" t="n">
-        <v>106467829113219676692458125254824998406717440</v>
+        <v>348662383747309006168648083308875817655011305848832</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1454,16 +1454,16 @@
         <v>1407.02409090065</v>
       </c>
       <c r="C34" t="n">
-        <v>-901567135489764693923482749813018538316660736</v>
+        <v>-4168822383296727904327778870569232946054724866539520</v>
       </c>
       <c r="D34" t="n">
-        <v>-1378827947866437075988560987402448941384466432</v>
+        <v>-6375663647786055279563989576090369440858001178099712</v>
       </c>
       <c r="E34" t="n">
-        <v>901567135489764693923482749813018538316660736</v>
+        <v>4168822383296727904327778870569232946054724866539520</v>
       </c>
       <c r="F34" t="n">
-        <v>1378827947866437075988560987402448941384466432</v>
+        <v>6375663647786055279563989576090369440858001178099712</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1486,16 +1486,16 @@
         <v>1345.18772349491</v>
       </c>
       <c r="C35" t="n">
-        <v>-8864630791630315289148957644981193121118289920</v>
+        <v>-102934689959925681743445373550356091921570431464636416</v>
       </c>
       <c r="D35" t="n">
-        <v>-13557282870983733737199693342008214225520951296</v>
+        <v>-157425023311892413510063856867795675184226478302691328</v>
       </c>
       <c r="E35" t="n">
-        <v>8864630791630315289148957644981193121118289920</v>
+        <v>102934689959925681743445373550356091921570431464636416</v>
       </c>
       <c r="F35" t="n">
-        <v>13557282870983733737199693342008214225520951296</v>
+        <v>157425023311892413510063856867795675184226478302691328</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1518,16 +1518,16 @@
         <v>1310.19417753639</v>
       </c>
       <c r="C36" t="n">
-        <v>-254289793791600380521255815178772518413013090304</v>
+        <v>-2011613679070424456605307313008018587066394233358254080</v>
       </c>
       <c r="D36" t="n">
-        <v>-388902679273663897343561614214850134304073187328</v>
+        <v>-3076497635981337065241697826486977648325170338474229760</v>
       </c>
       <c r="E36" t="n">
-        <v>254289793791600380521255815178772518413013090304</v>
+        <v>2011613679070424456605307313008018587066394233358254080</v>
       </c>
       <c r="F36" t="n">
-        <v>388902679273663897343561614214850134304073187328</v>
+        <v>3076497635981337065241697826486977648325170338474229760</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1550,16 +1550,16 @@
         <v>1231.05597723644</v>
       </c>
       <c r="C37" t="n">
-        <v>-2135322303227134099930887789746890269637281316864</v>
+        <v>-32187966580809991620703901013051454703127036638942724096</v>
       </c>
       <c r="D37" t="n">
-        <v>-3265693649971704310151022213898770223814185844736</v>
+        <v>-49227246823390398333630788988331399760584736198799392768</v>
       </c>
       <c r="E37" t="n">
-        <v>2135322303227134099930887789746890269637281316864</v>
+        <v>32187966580809991620703901013051454703127036638942724096</v>
       </c>
       <c r="F37" t="n">
-        <v>3265693649971704310151022213898770223814185844736</v>
+        <v>49227246823390398333630788988331399760584736198799392768</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -1582,16 +1582,16 @@
         <v>1210.76829102618</v>
       </c>
       <c r="C38" t="n">
-        <v>-25802844925807458827216737430557190578006201991168</v>
+        <v>-648362015810844682458332503626324153587581467113488908288</v>
       </c>
       <c r="D38" t="n">
-        <v>-39462045939418469822241415014080624291018279223296</v>
+        <v>-991584134496396178087646193637106825149824080172279660544</v>
       </c>
       <c r="E38" t="n">
-        <v>25802844925807458827216737430557190578006201991168</v>
+        <v>648362015810844682458332503626324153587581467113488908288</v>
       </c>
       <c r="F38" t="n">
-        <v>39462045939418469822241415014080624291018279223296</v>
+        <v>991584134496396178087646193637106825149824080172279660544</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -1614,16 +1614,16 @@
         <v>1158.43609622364</v>
       </c>
       <c r="C39" t="n">
-        <v>-304728534939973676333276281006137667840386747334656</v>
+        <v>-19250042948749969444754233749737133300796385063398113542144</v>
       </c>
       <c r="D39" t="n">
-        <v>-466042077120944394385557794016677702147369726902272</v>
+        <v>-29440400132760862686604669699360463797586395327007261982720</v>
       </c>
       <c r="E39" t="n">
-        <v>304728534939973676333276281006137667840386747334656</v>
+        <v>19250042948749969444754233749737133300796385063398113542144</v>
       </c>
       <c r="F39" t="n">
-        <v>466042077120944394385557794016677702147369726902272</v>
+        <v>29440400132760862686604669699360463797586395327007261982720</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1646,16 +1646,16 @@
         <v>1471.83982336644</v>
       </c>
       <c r="C40" t="n">
-        <v>-6051616324462956473056999861515785681619904196771840</v>
+        <v>-423248828504816162599579977269611735087028934681077215133696</v>
       </c>
       <c r="D40" t="n">
-        <v>-9255148495848226116500144633570649070034459796963328</v>
+        <v>-647303224209856561087808477855858183050205146130043447017472</v>
       </c>
       <c r="E40" t="n">
-        <v>6051616324462956473056999861515785681619904196771840</v>
+        <v>423248828504816162599579977269611735087028934681077215133696</v>
       </c>
       <c r="F40" t="n">
-        <v>9255148495848226116500144633570649070034459796963328</v>
+        <v>647303224209856561087808477855858183050205146130043447017472</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>

--- a/outcome/appendix/data/forecast/HAV.xlsx
+++ b/outcome/appendix/data/forecast/HAV.xlsx
@@ -462,16 +462,16 @@
         <v>1206.32381161668</v>
       </c>
       <c r="C3" t="n">
-        <v>-5258.36062921712</v>
+        <v>-4252.69754302575</v>
       </c>
       <c r="D3" t="n">
-        <v>-8680.5578528494</v>
+        <v>-7142.52888662604</v>
       </c>
       <c r="E3" t="n">
-        <v>7671.00825245049</v>
+        <v>6665.34516625911</v>
       </c>
       <c r="F3" t="n">
-        <v>11093.2054760828</v>
+        <v>9555.1765098594</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -494,16 +494,16 @@
         <v>1531.17397836404</v>
       </c>
       <c r="C4" t="n">
-        <v>-422456.165284905</v>
+        <v>-310253.933607871</v>
       </c>
       <c r="D4" t="n">
-        <v>-646901.504970325</v>
+        <v>-475302.99970179</v>
       </c>
       <c r="E4" t="n">
-        <v>425518.513241633</v>
+        <v>313316.281564599</v>
       </c>
       <c r="F4" t="n">
-        <v>649963.852927053</v>
+        <v>478365.347658518</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -526,16 +526,16 @@
         <v>1410.96982079323</v>
       </c>
       <c r="C5" t="n">
-        <v>-20544366.900557</v>
+        <v>-11825116.5249438</v>
       </c>
       <c r="D5" t="n">
-        <v>-31420644.7187367</v>
+        <v>-18085702.0072221</v>
       </c>
       <c r="E5" t="n">
-        <v>20547188.8401986</v>
+        <v>11827938.4645854</v>
       </c>
       <c r="F5" t="n">
-        <v>31423466.6583783</v>
+        <v>18088523.9468637</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -558,16 +558,16 @@
         <v>1420.35143810293</v>
       </c>
       <c r="C6" t="n">
-        <v>-1007244037.54975</v>
+        <v>-506731144.870868</v>
       </c>
       <c r="D6" t="n">
-        <v>-1540447574.56587</v>
+        <v>-774979161.258838</v>
       </c>
       <c r="E6" t="n">
-        <v>1007246878.25263</v>
+        <v>506733985.573744</v>
       </c>
       <c r="F6" t="n">
-        <v>1540450415.26875</v>
+        <v>774982001.961714</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -590,16 +590,16 @@
         <v>1419.43451361272</v>
       </c>
       <c r="C7" t="n">
-        <v>-48604793986.7492</v>
+        <v>-20805854253.3945</v>
       </c>
       <c r="D7" t="n">
-        <v>-74334618453.2939</v>
+        <v>-31819808943.7593</v>
       </c>
       <c r="E7" t="n">
-        <v>48604796825.6182</v>
+        <v>20805857092.2636</v>
       </c>
       <c r="F7" t="n">
-        <v>74334621292.1629</v>
+        <v>31819811782.6283</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -622,16 +622,16 @@
         <v>1519.78312714683</v>
       </c>
       <c r="C8" t="n">
-        <v>-2658261314428.05</v>
+        <v>-914195260288.099</v>
       </c>
       <c r="D8" t="n">
-        <v>-4065459852637.36</v>
+        <v>-1398140998931.64</v>
       </c>
       <c r="E8" t="n">
-        <v>2658261317467.62</v>
+        <v>914195263327.666</v>
       </c>
       <c r="F8" t="n">
-        <v>4065459855676.92</v>
+        <v>1398141001971.21</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -654,16 +654,16 @@
         <v>1581.25789100461</v>
       </c>
       <c r="C9" t="n">
-        <v>-135931442075887</v>
+        <v>-35080144082412.3</v>
       </c>
       <c r="D9" t="n">
-        <v>-207889200871279</v>
+        <v>-53650450612854.4</v>
       </c>
       <c r="E9" t="n">
-        <v>135931442079050</v>
+        <v>35080144085574.8</v>
       </c>
       <c r="F9" t="n">
-        <v>207889200874442</v>
+        <v>53650450616016.9</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -686,16 +686,16 @@
         <v>1443.93537716351</v>
       </c>
       <c r="C10" t="n">
-        <v>-5741992324406332</v>
+        <v>-1398019736407188</v>
       </c>
       <c r="D10" t="n">
-        <v>-8781619450919513</v>
+        <v>-2138086680789035</v>
       </c>
       <c r="E10" t="n">
-        <v>5741992324409220</v>
+        <v>1398019736410076</v>
       </c>
       <c r="F10" t="n">
-        <v>8781619450922401</v>
+        <v>2138086680791923</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -718,16 +718,16 @@
         <v>1379.60468848891</v>
       </c>
       <c r="C11" t="n">
-        <v>-245529166581671232</v>
+        <v>-53754589431163120</v>
       </c>
       <c r="D11" t="n">
-        <v>-375504456154842176</v>
+        <v>-82210550181058176</v>
       </c>
       <c r="E11" t="n">
-        <v>245529166581673984</v>
+        <v>53754589431165872</v>
       </c>
       <c r="F11" t="n">
-        <v>375504456154844992</v>
+        <v>82210550181060928</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -750,16 +750,16 @@
         <v>1342.88674124662</v>
       </c>
       <c r="C12" t="n">
-        <v>-9221470168223053824</v>
+        <v>-2012296330505339392</v>
       </c>
       <c r="D12" t="n">
-        <v>-14103021602995099648</v>
+        <v>-3077541661256948736</v>
       </c>
       <c r="E12" t="n">
-        <v>9221470168223055872</v>
+        <v>2012296330505341952</v>
       </c>
       <c r="F12" t="n">
-        <v>14103021602995103744</v>
+        <v>3077541661256951808</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -782,16 +782,16 @@
         <v>1261.01354591642</v>
       </c>
       <c r="C13" t="n">
-        <v>-386848666876823928832</v>
+        <v>-73462170930587459584</v>
       </c>
       <c r="D13" t="n">
-        <v>-591633980973448691712</v>
+        <v>-112350695142641745920</v>
       </c>
       <c r="E13" t="n">
-        <v>386848666876823928832</v>
+        <v>73462170930587459584</v>
       </c>
       <c r="F13" t="n">
-        <v>591633980973448691712</v>
+        <v>112350695142641745920</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -814,16 +814,16 @@
         <v>1239.5023369375</v>
       </c>
       <c r="C14" t="n">
-        <v>-14392333837031725596672</v>
+        <v>-2841358530868461174784</v>
       </c>
       <c r="D14" t="n">
-        <v>-22011175150858671226880</v>
+        <v>-4345482879810044166144</v>
       </c>
       <c r="E14" t="n">
-        <v>14392333837031725596672</v>
+        <v>2841358530868461174784</v>
       </c>
       <c r="F14" t="n">
-        <v>22011175150858671226880</v>
+        <v>4345482879810044166144</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -846,16 +846,16 @@
         <v>1185.24675435992</v>
       </c>
       <c r="C15" t="n">
-        <v>-500732624327606175531008</v>
+        <v>-105484094553676538970112</v>
       </c>
       <c r="D15" t="n">
-        <v>-765804463864296582938624</v>
+        <v>-161324001176001452179456</v>
       </c>
       <c r="E15" t="n">
-        <v>500732624327606175531008</v>
+        <v>105484094553676538970112</v>
       </c>
       <c r="F15" t="n">
-        <v>765804463864296582938624</v>
+        <v>161324001176001452179456</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -878,16 +878,16 @@
         <v>1505.05893222603</v>
       </c>
       <c r="C16" t="n">
-        <v>-25342850910143431936311296</v>
+        <v>-5083045145080867458121728</v>
       </c>
       <c r="D16" t="n">
-        <v>-38758545800957539941089280</v>
+        <v>-7773846705821806235746304</v>
       </c>
       <c r="E16" t="n">
-        <v>25342850910143431936311296</v>
+        <v>5083045145080867458121728</v>
       </c>
       <c r="F16" t="n">
-        <v>38758545800957539941089280</v>
+        <v>7773846705821806235746304</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -910,16 +910,16 @@
         <v>1387.47961530892</v>
       </c>
       <c r="C17" t="n">
-        <v>-846568101863819692283527168</v>
+        <v>-193998915672669670894206976</v>
       </c>
       <c r="D17" t="n">
-        <v>-1294714184527112595843317760</v>
+        <v>-296695738182548126951276544</v>
       </c>
       <c r="E17" t="n">
-        <v>846568101863819692283527168</v>
+        <v>193998915672669670894206976</v>
       </c>
       <c r="F17" t="n">
-        <v>1294714184527112595843317760</v>
+        <v>296695738182548126951276544</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -942,16 +942,16 @@
         <v>1397.27064241342</v>
       </c>
       <c r="C18" t="n">
-        <v>-28937926069097965854444748800</v>
+        <v>-7209496007325064068518117376</v>
       </c>
       <c r="D18" t="n">
-        <v>-44256738790383743941002395648</v>
+        <v>-11025972657633707733318369280</v>
       </c>
       <c r="E18" t="n">
-        <v>28937926069097965854444748800</v>
+        <v>7209496007325064068518117376</v>
       </c>
       <c r="F18" t="n">
-        <v>44256738790383743941002395648</v>
+        <v>11025972657633707733318369280</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -974,16 +974,16 @@
         <v>1396.92119032969</v>
       </c>
       <c r="C19" t="n">
-        <v>-887744762150438764648454946816</v>
+        <v>-235053803473915063377239998464</v>
       </c>
       <c r="D19" t="n">
-        <v>-1357688452075307694508310790144</v>
+        <v>-359483770785496341762317221888</v>
       </c>
       <c r="E19" t="n">
-        <v>887744762150438764648454946816</v>
+        <v>235053803473915063377239998464</v>
       </c>
       <c r="F19" t="n">
-        <v>1357688452075307694508310790144</v>
+        <v>359483770785496341762317221888</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -1006,16 +1006,16 @@
         <v>1496.25653967067</v>
       </c>
       <c r="C20" t="n">
-        <v>-27003951291468049425767965130752</v>
+        <v>-6966090254216354070491090124800</v>
       </c>
       <c r="D20" t="n">
-        <v>-41298979607628811691324335980544</v>
+        <v>-10653715682144635438125690126336</v>
       </c>
       <c r="E20" t="n">
-        <v>27003951291468049425767965130752</v>
+        <v>6966090254216354070491090124800</v>
       </c>
       <c r="F20" t="n">
-        <v>41298979607628811691324335980544</v>
+        <v>10653715682144635438125690126336</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1038,16 +1038,16 @@
         <v>1557.36783061766</v>
       </c>
       <c r="C21" t="n">
-        <v>-843940250360373388149492568555520</v>
+        <v>-181211692897960549756713924820992</v>
       </c>
       <c r="D21" t="n">
-        <v>-1290695232467789277021120235569152</v>
+        <v>-277139368564233298708092843720704</v>
       </c>
       <c r="E21" t="n">
-        <v>843940250360373388149492568555520</v>
+        <v>181211692897960549756713924820992</v>
       </c>
       <c r="F21" t="n">
-        <v>1290695232467789277021120235569152</v>
+        <v>277139368564233298708092843720704</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1070,16 +1070,16 @@
         <v>1422.64496694594</v>
       </c>
       <c r="C22" t="n">
-        <v>-25310613288223716103309402784661504</v>
+        <v>-5228160795840545965919243459362816</v>
       </c>
       <c r="D22" t="n">
-        <v>-38709242612846643581887896182849536</v>
+        <v>-7995781941772453084435209227599872</v>
       </c>
       <c r="E22" t="n">
-        <v>25310613288223716103309402784661504</v>
+        <v>5228160795840545965919243459362816</v>
       </c>
       <c r="F22" t="n">
-        <v>38709242612846643581887896182849536</v>
+        <v>7995781941772453084435209227599872</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1102,16 +1102,16 @@
         <v>1359.7529967553</v>
       </c>
       <c r="C23" t="n">
-        <v>-851683899922145673597708481775796224</v>
+        <v>-171330708974634134113480304578527232</v>
       </c>
       <c r="D23" t="n">
-        <v>-1302538122491120895916096838579519488</v>
+        <v>-262027707713263745493033019512979456</v>
       </c>
       <c r="E23" t="n">
-        <v>851683899922145673597708481775796224</v>
+        <v>171330708974634134113480304578527232</v>
       </c>
       <c r="F23" t="n">
-        <v>1302538122491120895916096838579519488</v>
+        <v>262027707713263745493033019512979456</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1134,16 +1134,16 @@
         <v>1324.02967891418</v>
       </c>
       <c r="C24" t="n">
-        <v>-21744437849693620101855196185416957952</v>
+        <v>-4400633029827612512455880625090461696</v>
       </c>
       <c r="D24" t="n">
-        <v>-33255247931719575927148181273016532992</v>
+        <v>-6730187438048371514539132076576210944</v>
       </c>
       <c r="E24" t="n">
-        <v>21744437849693620101855196185416957952</v>
+        <v>4400633029827612512455880625090461696</v>
       </c>
       <c r="F24" t="n">
-        <v>33255247931719575927148181273016532992</v>
+        <v>6730187438048371514539132076576210944</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1166,16 +1166,16 @@
         <v>1243.73402371234</v>
       </c>
       <c r="C25" t="n">
-        <v>-529965298933643464032491258093674430464</v>
+        <v>-106350148530957015026962311288853626880</v>
       </c>
       <c r="D25" t="n">
-        <v>-810511981641986542761370107750664634368</v>
+        <v>-162648516435296577810147986277381701632</v>
       </c>
       <c r="E25" t="n">
-        <v>529965298933643464032491258093674430464</v>
+        <v>106350148530957015026962311288853626880</v>
       </c>
       <c r="F25" t="n">
-        <v>810511981641986542761370107750664634368</v>
+        <v>162648516435296577810147986277381701632</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1198,16 +1198,16 @@
         <v>1222.92853829365</v>
       </c>
       <c r="C26" t="n">
-        <v>-17784006978014484666199770826190712995840</v>
+        <v>-3095855144410428865017947665833234792448</v>
       </c>
       <c r="D26" t="n">
-        <v>-27198291598126349746956610648013296107520</v>
+        <v>-4734701862596504906619990911411644530688</v>
       </c>
       <c r="E26" t="n">
-        <v>17784006978014484666199770826190712995840</v>
+        <v>3095855144410428865017947665833234792448</v>
       </c>
       <c r="F26" t="n">
-        <v>27198291598126349746956610648013296107520</v>
+        <v>4734701862596504906619990911411644530688</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1230,16 +1230,16 @@
         <v>1169.78236179598</v>
       </c>
       <c r="C27" t="n">
-        <v>-570318308736729336908989792620807274364928</v>
+        <v>-66751848483175256578645509573406674124800</v>
       </c>
       <c r="D27" t="n">
-        <v>-872226584478299527679132403992351834374144</v>
+        <v>-102088142565610190927685462883668177453056</v>
       </c>
       <c r="E27" t="n">
-        <v>570318308736729336908989792620807274364928</v>
+        <v>66751848483175256578645509573406674124800</v>
       </c>
       <c r="F27" t="n">
-        <v>872226584478299527679132403992351834374144</v>
+        <v>102088142565610190927685462883668177453056</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1262,16 +1262,16 @@
         <v>1485.89813894824</v>
       </c>
       <c r="C28" t="n">
-        <v>-20156393681368789669601038059746580253114368</v>
+        <v>-1932973617983266675572105221482274766192640</v>
       </c>
       <c r="D28" t="n">
-        <v>-30826543961112774559160650974820617622126592</v>
+        <v>-2956228041205133023575589216378165680668672</v>
       </c>
       <c r="E28" t="n">
-        <v>20156393681368789669601038059746580253114368</v>
+        <v>1932973617983266675572105221482274766192640</v>
       </c>
       <c r="F28" t="n">
-        <v>30826543961112774559160650974820617622126592</v>
+        <v>2956228041205133023575589216378165680668672</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1294,16 +1294,16 @@
         <v>1370.24469435142</v>
       </c>
       <c r="C29" t="n">
-        <v>-407087623021311205649481202268146069416181760</v>
+        <v>-54742714246059049160054567810452174822965248</v>
       </c>
       <c r="D29" t="n">
-        <v>-622586793325578932424867829259273243612676096</v>
+        <v>-83721756675977786482904372742814322919473152</v>
       </c>
       <c r="E29" t="n">
-        <v>407087623021311205649481202268146069416181760</v>
+        <v>54742714246059049160054567810452174822965248</v>
       </c>
       <c r="F29" t="n">
-        <v>622586793325578932424867829259273243612676096</v>
+        <v>83721756675977786482904372742814322919473152</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1326,16 +1326,16 @@
         <v>1380.33611647628</v>
       </c>
       <c r="C30" t="n">
-        <v>-12370014549551285915777915267164751748204068864</v>
+        <v>-1433295589019383910503410034572046562913943552</v>
       </c>
       <c r="D30" t="n">
-        <v>-18918304699705200022542585404887834470819823616</v>
+        <v>-2192036441767624190321151696469089239338844160</v>
       </c>
       <c r="E30" t="n">
-        <v>12370014549551285915777915267164751748204068864</v>
+        <v>1433295589019383910503410034572046562913943552</v>
       </c>
       <c r="F30" t="n">
-        <v>18918304699705200022542585404887834470819823616</v>
+        <v>2192036441767624190321151696469089239338844160</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1358,16 +1358,16 @@
         <v>1380.40303081201</v>
       </c>
       <c r="C31" t="n">
-        <v>-325105901713741919701595452426457683449551519744</v>
+        <v>-37639927803453958211544938951446868414661918720</v>
       </c>
       <c r="D31" t="n">
-        <v>-497206570263580211575414126846147999380585578496</v>
+        <v>-57565301981514468231879397734303859975450001408</v>
       </c>
       <c r="E31" t="n">
-        <v>325105901713741919701595452426457683449551519744</v>
+        <v>37639927803453958211544938951446868414661918720</v>
       </c>
       <c r="F31" t="n">
-        <v>497206570263580211575414126846147999380585578496</v>
+        <v>57565301981514468231879397734303859975450001408</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1390,16 +1390,16 @@
         <v>1478.99495109704</v>
       </c>
       <c r="C32" t="n">
-        <v>-7989215662474977728314152039876919172333932904448</v>
+        <v>-793174903031371076341733454200650479584724123648</v>
       </c>
       <c r="D32" t="n">
-        <v>-12218450965350024028397393386795966309704876949504</v>
+        <v>-1213056333571646471251098915515737298707769458688</v>
       </c>
       <c r="E32" t="n">
-        <v>7989215662474977728314152039876919172333932904448</v>
+        <v>793174903031371076341733454200650479584724123648</v>
       </c>
       <c r="F32" t="n">
-        <v>12218450965350024028397393386795966309704876949504</v>
+        <v>1213056333571646471251098915515737298707769458688</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1422,16 +1422,16 @@
         <v>1539.8395692386</v>
       </c>
       <c r="C33" t="n">
-        <v>-227978078812878727520751364752932004613615716925440</v>
+        <v>-19958925868787249259944599444351305575152373202944</v>
       </c>
       <c r="D33" t="n">
-        <v>-348662383747309006168648083308875817655011305848832</v>
+        <v>-30524543002921710921339581531272434897185019002880</v>
       </c>
       <c r="E33" t="n">
-        <v>227978078812878727520751364752932004613615716925440</v>
+        <v>19958925868787249259944599444351305575152373202944</v>
       </c>
       <c r="F33" t="n">
-        <v>348662383747309006168648083308875817655011305848832</v>
+        <v>30524543002921710921339581531272434897185019002880</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1454,16 +1454,16 @@
         <v>1407.02409090065</v>
       </c>
       <c r="C34" t="n">
-        <v>-4168822383296727904327778870569232946054724866539520</v>
+        <v>-495634931585080617274680081173564587923371821367296</v>
       </c>
       <c r="D34" t="n">
-        <v>-6375663647786055279563989576090369440858001178099712</v>
+        <v>-758008215591324687359476324191322966387507817611264</v>
       </c>
       <c r="E34" t="n">
-        <v>4168822383296727904327778870569232946054724866539520</v>
+        <v>495634931585080617274680081173564587923371821367296</v>
       </c>
       <c r="F34" t="n">
-        <v>6375663647786055279563989576090369440858001178099712</v>
+        <v>758008215591324687359476324191322966387507817611264</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1486,16 +1486,16 @@
         <v>1345.18772349491</v>
       </c>
       <c r="C35" t="n">
-        <v>-102934689959925681743445373550356091921570431464636416</v>
+        <v>-13306728751764177493065703212084148445513725679501312</v>
       </c>
       <c r="D35" t="n">
-        <v>-157425023311892413510063856867795675184226478302691328</v>
+        <v>-20350885447530396356556715713178806374456748647907328</v>
       </c>
       <c r="E35" t="n">
-        <v>102934689959925681743445373550356091921570431464636416</v>
+        <v>13306728751764177493065703212084148445513725679501312</v>
       </c>
       <c r="F35" t="n">
-        <v>157425023311892413510063856867795675184226478302691328</v>
+        <v>20350885447530396356556715713178806374456748647907328</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1518,16 +1518,16 @@
         <v>1310.19417753639</v>
       </c>
       <c r="C36" t="n">
-        <v>-2011613679070424456605307313008018587066394233358254080</v>
+        <v>-381689975303421791343446866978851576182151388101345280</v>
       </c>
       <c r="D36" t="n">
-        <v>-3076497635981337065241697826486977648325170338474229760</v>
+        <v>-583744443039076314269651626640363192210150598956285952</v>
       </c>
       <c r="E36" t="n">
-        <v>2011613679070424456605307313008018587066394233358254080</v>
+        <v>381689975303421791343446866978851576182151388101345280</v>
       </c>
       <c r="F36" t="n">
-        <v>3076497635981337065241697826486977648325170338474229760</v>
+        <v>583744443039076314269651626640363192210150598956285952</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1550,16 +1550,16 @@
         <v>1231.05597723644</v>
       </c>
       <c r="C37" t="n">
-        <v>-32187966580809991620703901013051454703127036638942724096</v>
+        <v>-7297009870421487894031852731948229118159517263035629568</v>
       </c>
       <c r="D37" t="n">
-        <v>-49227246823390398333630788988331399760584736198799392768</v>
+        <v>-11159813561447882686259878739463122258682905193703538688</v>
       </c>
       <c r="E37" t="n">
-        <v>32187966580809991620703901013051454703127036638942724096</v>
+        <v>7297009870421487894031852731948229118159517263035629568</v>
       </c>
       <c r="F37" t="n">
-        <v>49227246823390398333630788988331399760584736198799392768</v>
+        <v>11159813561447882686259878739463122258682905193703538688</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -1582,16 +1582,16 @@
         <v>1210.76829102618</v>
       </c>
       <c r="C38" t="n">
-        <v>-648362015810844682458332503626324153587581467113488908288</v>
+        <v>-166473386926919150160737402466056831087697365423521529856</v>
       </c>
       <c r="D38" t="n">
-        <v>-991584134496396178087646193637106825149824080172279660544</v>
+        <v>-254599074694671129417315076679745876082149645597169156096</v>
       </c>
       <c r="E38" t="n">
-        <v>648362015810844682458332503626324153587581467113488908288</v>
+        <v>166473386926919150160737402466056831087697365423521529856</v>
       </c>
       <c r="F38" t="n">
-        <v>991584134496396178087646193637106825149824080172279660544</v>
+        <v>254599074694671129417315076679745876082149645597169156096</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -1614,16 +1614,16 @@
         <v>1158.43609622364</v>
       </c>
       <c r="C39" t="n">
-        <v>-19250042948749969444754233749737133300796385063398113542144</v>
+        <v>-2894176192307420269272314738502864866098799601551960702976</v>
       </c>
       <c r="D39" t="n">
-        <v>-29440400132760862686604669699360463797586395327007261982720</v>
+        <v>-4426260522279700056333088451487104032162557991425467744256</v>
       </c>
       <c r="E39" t="n">
-        <v>19250042948749969444754233749737133300796385063398113542144</v>
+        <v>2894176192307420269272314738502864866098799601551960702976</v>
       </c>
       <c r="F39" t="n">
-        <v>29440400132760862686604669699360463797586395327007261982720</v>
+        <v>4426260522279700056333088451487104032162557991425467744256</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1646,16 +1646,16 @@
         <v>1471.83982336644</v>
       </c>
       <c r="C40" t="n">
-        <v>-423248828504816162599579977269611735087028934681077215133696</v>
+        <v>-49999780422950464918719551879337810729756983647472474652672</v>
       </c>
       <c r="D40" t="n">
-        <v>-647303224209856561087808477855858183050205146130043447017472</v>
+        <v>-76468065350338989769775806801402972405134538600904736636928</v>
       </c>
       <c r="E40" t="n">
-        <v>423248828504816162599579977269611735087028934681077215133696</v>
+        <v>49999780422950464918719551879337810729756983647472474652672</v>
       </c>
       <c r="F40" t="n">
-        <v>647303224209856561087808477855858183050205146130043447017472</v>
+        <v>76468065350338989769775806801402972405134538600904736636928</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>
